--- a/CFTSTAPI01/jmeter/jmeter.xlsx
+++ b/CFTSTAPI01/jmeter/jmeter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\073090631\Documents\nando\projetos\CFTSTDADOS01\CFTSTAPI01\jmeter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A67BC8-2F02-4A53-96FA-DB7CF9440886}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91329424-16F2-4BD1-9A4D-071B7B0443A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7E2E3577-958F-4875-992A-21B5194F6A8E}"/>
+    <workbookView xWindow="30" yWindow="0" windowWidth="19170" windowHeight="10080" xr2:uid="{7E2E3577-958F-4875-992A-21B5194F6A8E}"/>
   </bookViews>
   <sheets>
     <sheet name="observação" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>segundos</t>
   </si>
@@ -75,27 +75,6 @@
   </si>
   <si>
     <t>início</t>
-  </si>
-  <si>
-    <t>container</t>
-  </si>
-  <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>negritandoApi - 649be73264ad4b66bfc2c9c813a5f1c0-2280425506</t>
-  </si>
-  <si>
-    <t>arn:aws:ecs:sa-east-1:105254198021:task/cmj/649be73264ad4b66bfc2c9c813a5f1c0</t>
-  </si>
-  <si>
-    <t>arn:aws:ecs:sa-east-1:105254198021:task/cmj/dc2ced0cd17f45b3be446d15fda11f32</t>
-  </si>
-  <si>
-    <t>bom</t>
-  </si>
-  <si>
-    <t>scaling</t>
   </si>
   <si>
     <t>endpoint</t>
@@ -128,7 +107,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -202,15 +181,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="172" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF0D2520-3328-48EA-8CBB-52737B6EFB38}">
-  <dimension ref="B5:M35"/>
+  <dimension ref="B5:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32:M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,10 +537,10 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>6</v>
@@ -570,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>10</v>
@@ -593,10 +572,10 @@
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3">
         <v>50000</v>
@@ -621,7 +600,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D10">
         <v>1000</v>
@@ -641,7 +620,7 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>2000</v>
@@ -661,7 +640,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>3000</v>
@@ -681,7 +660,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C13" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D13">
         <v>11700</v>
@@ -701,14 +680,14 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C15" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>1000</v>
@@ -737,7 +716,7 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C16" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7">
         <v>2000</v>
@@ -772,7 +751,7 @@
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C17" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>3000</v>
@@ -805,7 +784,7 @@
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C18" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7">
         <v>11700</v>
@@ -845,10 +824,10 @@
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D20">
         <v>300</v>
@@ -871,8 +850,25 @@
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C22" s="6"/>
-      <c r="F22" s="2"/>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22">
+        <f>F22*E22</f>
+        <v>7020</v>
+      </c>
+      <c r="E22">
+        <v>180</v>
+      </c>
+      <c r="F22" s="2">
+        <v>39</v>
+      </c>
+      <c r="K22" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.35">
       <c r="C23" s="6"/>
@@ -880,8 +876,25 @@
       <c r="L23" s="4"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C24" s="6"/>
-      <c r="F24" s="2"/>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24">
+        <f>F24*E24</f>
+        <v>9360</v>
+      </c>
+      <c r="E24">
+        <v>240</v>
+      </c>
+      <c r="F24" s="2">
+        <v>39</v>
+      </c>
+      <c r="K24" t="s">
+        <v>2</v>
+      </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
     </row>
@@ -890,50 +903,67 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="C26" s="6"/>
-      <c r="F26" s="2"/>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26">
+        <f>F26*E26</f>
+        <v>3240</v>
+      </c>
+      <c r="E26">
+        <v>180</v>
+      </c>
+      <c r="F26" s="2">
+        <v>18</v>
+      </c>
+      <c r="K26" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.35">
       <c r="F27" s="2"/>
       <c r="L27" s="4"/>
     </row>
     <row r="28" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E28" t="s">
+      <c r="B28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F28">
+      <c r="D28">
+        <f>F28*E28</f>
+        <v>1620</v>
+      </c>
+      <c r="E28">
+        <v>180</v>
+      </c>
+      <c r="F28" s="2">
+        <v>9</v>
+      </c>
+      <c r="K28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
-      <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E33" t="s">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="F34" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="F35" t="s">
-        <v>17</v>
+      <c r="C30" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <f>F30*E30</f>
+        <v>720</v>
+      </c>
+      <c r="E30">
+        <v>180</v>
+      </c>
+      <c r="F30" s="2">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
